--- a/data/export/Validacion_Metas.xlsx
+++ b/data/export/Validacion_Metas.xlsx
@@ -437,7 +437,7 @@
     <col width="34" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="139" customWidth="1" min="7" max="7"/>
+    <col width="81" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="22" customWidth="1" min="9" max="9"/>
     <col width="27" customWidth="1" min="10" max="10"/>
@@ -449,7 +449,7 @@
     <col width="22" customWidth="1" min="16" max="16"/>
     <col width="16" customWidth="1" min="17" max="17"/>
     <col width="20" customWidth="1" min="18" max="18"/>
-    <col width="19" customWidth="1" min="19" max="19"/>
+    <col width="44" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -576,12 +576,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4132-Licencia por Maternidad (2023-07-17) al (2023-10-16) - 4133-Período de Excedencia (2023-10-17) al (2024-01-14)</t>
+          <t>4132-Licencia por Maternidad - 4133-Período de Excedencia</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>92 - 90</t>
+          <t>16 - 15</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>prueba excedencia</t>
+          <t>Prueba</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3560-Beneficio Vacaciones Jefatura (2023-10-06) al (2023-10-12)</t>
+          <t>3560-Beneficio Vacaciones Jefatura</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-04) al (2023-10-04) - 18-Dia Promesa (2023-10-05) al (2023-10-05)</t>
+          <t>18-Dia Promesa - 18-Dia Promesa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-09) al (2023-10-09)</t>
+          <t>18-Dia Promesa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -801,7 +801,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -810,28 +810,24 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>14.4</v>
+        <v>18</v>
       </c>
       <c r="N5" t="n">
-        <v>14.4</v>
+        <v>18</v>
       </c>
       <c r="O5" t="n">
-        <v>18356000</v>
+        <v>22945000</v>
       </c>
       <c r="P5" t="n">
-        <v>18356000</v>
+        <v>22945000</v>
       </c>
       <c r="Q5" t="n">
-        <v>28.8</v>
+        <v>36</v>
       </c>
       <c r="R5" t="n">
-        <v>36712000</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>prueba</t>
-        </is>
-      </c>
+        <v>45890000</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -869,27 +865,28 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>12.6</v>
+        <v>18</v>
       </c>
       <c r="N6" t="n">
-        <v>12.6</v>
+        <v>18</v>
       </c>
       <c r="O6" t="n">
-        <v>16061500</v>
+        <v>22945000</v>
       </c>
       <c r="P6" t="n">
-        <v>16061500</v>
+        <v>22945000</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.2</v>
+        <v>36</v>
       </c>
       <c r="R6" t="n">
-        <v>32123000</v>
-      </c>
+        <v>45890000</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -918,7 +915,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-12) al (2023-10-12)</t>
+          <t>18-Dia Promesa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -956,6 +953,7 @@
       <c r="R7" t="n">
         <v>45890000</v>
       </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1014,6 +1012,7 @@
       <c r="R8" t="n">
         <v>66000000</v>
       </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1068,6 +1067,7 @@
       <c r="R9" t="n">
         <v>0</v>
       </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-23)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1104,14 +1104,8 @@
           <t>7</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>prueba</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>7</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>SI</t>
@@ -1119,26 +1113,31 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>8.550000000000001</v>
+        <v>10</v>
       </c>
       <c r="N10" t="n">
-        <v>7.95</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>22572000</v>
+        <v>26400000</v>
       </c>
       <c r="P10" t="n">
-        <v>20991960</v>
+        <v>24552000</v>
       </c>
       <c r="Q10" t="n">
-        <v>16.5</v>
+        <v>19.3</v>
       </c>
       <c r="R10" t="n">
-        <v>43563960</v>
+        <v>50952000</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Pruebaaaaaaaa tsttttttttttkkkkkkkkkkkkkkkk</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1164,7 +1163,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-23) - 3560-Beneficio Vacaciones Jefatura (2023-10-24) al (2023-10-30)</t>
+          <t>3553-Vacaciones - 3560-Beneficio Vacaciones Jefatura</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1202,6 +1201,7 @@
       <c r="R11" t="n">
         <v>0</v>
       </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1260,6 +1260,7 @@
       <c r="R12" t="n">
         <v>66000000</v>
       </c>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1288,7 +1289,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-02) al (2023-10-08)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1326,6 +1327,7 @@
       <c r="R13" t="n">
         <v>63690000</v>
       </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1354,7 +1356,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4110-Licencias por Enfermedad (2023-10-09) al (2023-10-11)</t>
+          <t>4110-Licencias por Enfermedad</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1392,6 +1394,7 @@
       <c r="R14" t="n">
         <v>66000000</v>
       </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1446,6 +1449,7 @@
       <c r="R15" t="n">
         <v>0</v>
       </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1474,7 +1478,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-02) al (2023-10-08) - 4111-Licencia por cumpleaños (2023-10-12) al (2023-10-12)</t>
+          <t>3553-Vacaciones - 4111-Licencia por cumpleaños</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1512,6 +1516,7 @@
       <c r="R16" t="n">
         <v>19821100</v>
       </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1540,7 +1545,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4110-Licencias por Enfermedad (2023-10-03) al (2023-10-05)</t>
+          <t>4110-Licencias por Enfermedad</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1578,6 +1583,7 @@
       <c r="R17" t="n">
         <v>20540000</v>
       </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1602,7 +1608,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3560-Beneficio Vacaciones Jefatura (2023-10-06) al (2023-10-12)</t>
+          <t>3560-Beneficio Vacaciones Jefatura</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1640,6 +1646,7 @@
       <c r="R18" t="n">
         <v>0</v>
       </c>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1664,7 +1671,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4102-Licencia Fallec. Fliar. Directo (2023-10-20) al (2023-10-23) - 3560-Beneficio Vacaciones Jefatura (2023-10-24) al (2023-10-30)</t>
+          <t>4102-Licencia Fallec. Fliar. Directo - 3560-Beneficio Vacaciones Jefatura</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1702,6 +1709,7 @@
       <c r="R19" t="n">
         <v>0</v>
       </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1726,7 +1734,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3560-Beneficio Vacaciones Jefatura (2023-10-23) al (2023-10-29)</t>
+          <t>3560-Beneficio Vacaciones Jefatura</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1764,6 +1772,7 @@
       <c r="R20" t="n">
         <v>0</v>
       </c>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1788,7 +1797,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3560-Beneficio Vacaciones Gerencia (2023-10-17) al (2023-10-23)</t>
+          <t>3560-Beneficio Vacaciones Gerencia</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1826,6 +1835,7 @@
       <c r="R21" t="n">
         <v>0</v>
       </c>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1854,7 +1864,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-23)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1892,6 +1902,7 @@
       <c r="R22" t="n">
         <v>63690000</v>
       </c>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1916,7 +1927,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-11) al (2023-10-11) - 3560-Beneficio Vacaciones Jefatura (2023-10-17) al (2023-10-23)</t>
+          <t>18-Dia Promesa - 3560-Beneficio Vacaciones Jefatura</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1954,6 +1965,7 @@
       <c r="R23" t="n">
         <v>0</v>
       </c>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1982,7 +1994,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-12) al (2023-10-25)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2020,6 +2032,7 @@
       <c r="R24" t="n">
         <v>61380000</v>
       </c>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2048,7 +2061,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-06) al (2023-10-06)</t>
+          <t>18-Dia Promesa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2086,6 +2099,7 @@
       <c r="R25" t="n">
         <v>66000000</v>
       </c>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2144,6 +2158,7 @@
       <c r="R26" t="n">
         <v>66000000</v>
       </c>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2172,7 +2187,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-23) al (2023-10-29)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2210,6 +2225,7 @@
       <c r="R27" t="n">
         <v>63690000</v>
       </c>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2268,6 +2284,7 @@
       <c r="R28" t="n">
         <v>66000000</v>
       </c>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2296,7 +2313,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-06) al (2023-10-12)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2334,6 +2351,7 @@
       <c r="R29" t="n">
         <v>63690000</v>
       </c>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2392,6 +2410,7 @@
       <c r="R30" t="n">
         <v>20540000</v>
       </c>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2450,6 +2469,7 @@
       <c r="R31" t="n">
         <v>20540000</v>
       </c>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2508,6 +2528,7 @@
       <c r="R32" t="n">
         <v>66000000</v>
       </c>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2566,6 +2587,7 @@
       <c r="R33" t="n">
         <v>66000000</v>
       </c>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2594,7 +2616,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-11) al (2023-10-11)</t>
+          <t>18-Dia Promesa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2632,6 +2654,7 @@
       <c r="R34" t="n">
         <v>20540000</v>
       </c>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2660,7 +2683,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-12) al (2023-10-12)</t>
+          <t>18-Dia Promesa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2698,6 +2721,7 @@
       <c r="R35" t="n">
         <v>66000000</v>
       </c>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2756,6 +2780,7 @@
       <c r="R36" t="n">
         <v>45890000</v>
       </c>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2780,7 +2805,7 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-26) al (2023-10-26)</t>
+          <t>18-Dia Promesa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2818,6 +2843,7 @@
       <c r="R37" t="n">
         <v>0</v>
       </c>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2876,6 +2902,7 @@
       <c r="R38" t="n">
         <v>45890000</v>
       </c>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2904,7 +2931,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-19) al (2023-10-19)</t>
+          <t>18-Dia Promesa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2942,6 +2969,7 @@
       <c r="R39" t="n">
         <v>66000000</v>
       </c>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2970,7 +2998,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-23)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3008,6 +3036,7 @@
       <c r="R40" t="n">
         <v>19821100</v>
       </c>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3036,7 +3065,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-30)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3074,6 +3103,7 @@
       <c r="R41" t="n">
         <v>61380000</v>
       </c>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3132,6 +3162,7 @@
       <c r="R42" t="n">
         <v>66000000</v>
       </c>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3160,7 +3191,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-06) al (2023-10-12)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3198,6 +3229,7 @@
       <c r="R43" t="n">
         <v>63690000</v>
       </c>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3256,6 +3288,7 @@
       <c r="R44" t="n">
         <v>66000000</v>
       </c>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3314,6 +3347,7 @@
       <c r="R45" t="n">
         <v>66000000</v>
       </c>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3372,6 +3406,7 @@
       <c r="R46" t="n">
         <v>66000000</v>
       </c>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3400,7 +3435,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>4118-Enfermedad Fliar con goce de haber (2023-10-06) al (2023-10-06) - 3553-Vacaciones (2023-10-09) al (2023-10-15)</t>
+          <t>4118-Enfermedad Fliar con goce de haber - 3553-Vacaciones</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3424,20 +3459,21 @@
         <v>18</v>
       </c>
       <c r="N47" t="n">
-        <v>16.74</v>
+        <v>18</v>
       </c>
       <c r="O47" t="n">
         <v>22945000</v>
       </c>
       <c r="P47" t="n">
-        <v>21338850</v>
+        <v>22945000</v>
       </c>
       <c r="Q47" t="n">
-        <v>34.74</v>
+        <v>36</v>
       </c>
       <c r="R47" t="n">
-        <v>44283850</v>
-      </c>
+        <v>45890000</v>
+      </c>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3466,7 +3502,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-23)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3504,6 +3540,7 @@
       <c r="R48" t="n">
         <v>44283850</v>
       </c>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3532,7 +3569,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-02) al (2023-10-08)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3570,6 +3607,7 @@
       <c r="R49" t="n">
         <v>63690000</v>
       </c>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3598,7 +3636,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-30)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3636,6 +3674,7 @@
       <c r="R50" t="n">
         <v>61380000</v>
       </c>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3664,7 +3703,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-30)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3702,6 +3741,7 @@
       <c r="R51" t="n">
         <v>61380000</v>
       </c>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3730,7 +3770,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-23) - 3553-Vacaciones (2023-10-24) al (2023-10-30)</t>
+          <t>3553-Vacaciones - 3553-Vacaciones</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3754,20 +3794,21 @@
         <v>18</v>
       </c>
       <c r="N52" t="n">
-        <v>12.96</v>
+        <v>15.48</v>
       </c>
       <c r="O52" t="n">
         <v>22945000</v>
       </c>
       <c r="P52" t="n">
-        <v>16520400</v>
+        <v>19732700</v>
       </c>
       <c r="Q52" t="n">
-        <v>30.96</v>
+        <v>33.48</v>
       </c>
       <c r="R52" t="n">
-        <v>39465400</v>
-      </c>
+        <v>42677700</v>
+      </c>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3796,7 +3837,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-02) al (2023-10-08)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3834,6 +3875,7 @@
       <c r="R53" t="n">
         <v>63690000</v>
       </c>
+      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3892,6 +3934,7 @@
       <c r="R54" t="n">
         <v>45890000</v>
       </c>
+      <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3920,12 +3963,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-09-29) al (2023-10-26)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -3958,6 +4001,7 @@
       <c r="R55" t="n">
         <v>33000000</v>
       </c>
+      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3986,7 +4030,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4111-Licencia por cumpleaños (2023-10-09) al (2023-10-09)</t>
+          <t>4111-Licencia por cumpleaños</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4024,6 +4068,7 @@
       <c r="R56" t="n">
         <v>66000000</v>
       </c>
+      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4052,7 +4097,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-23)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4090,6 +4135,7 @@
       <c r="R57" t="n">
         <v>63690000</v>
       </c>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4118,7 +4164,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>4110-Licencias por Enfermedad (2023-10-22) al (2023-10-24)</t>
+          <t>4110-Licencias por Enfermedad</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4156,6 +4202,7 @@
       <c r="R58" t="n">
         <v>45890000</v>
       </c>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4214,6 +4261,7 @@
       <c r="R59" t="n">
         <v>45890000</v>
       </c>
+      <c r="S59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4242,7 +4290,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-02) al (2023-10-08)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4280,6 +4328,7 @@
       <c r="R60" t="n">
         <v>44283850</v>
       </c>
+      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4308,7 +4357,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-23) al (2023-10-29)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4346,6 +4395,7 @@
       <c r="R61" t="n">
         <v>63690000</v>
       </c>
+      <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4374,7 +4424,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-05) al (2023-10-05)</t>
+          <t>18-Dia Promesa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4412,6 +4462,7 @@
       <c r="R62" t="n">
         <v>66000000</v>
       </c>
+      <c r="S62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4440,7 +4491,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>4118-Enfermedad Fliar con goce de haber (2023-10-06) al (2023-10-16)</t>
+          <t>4118-Enfermedad Fliar con goce de haber</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4478,6 +4529,7 @@
       <c r="R63" t="n">
         <v>66000000</v>
       </c>
+      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4506,7 +4558,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-23)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4544,6 +4596,7 @@
       <c r="R64" t="n">
         <v>63690000</v>
       </c>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4572,7 +4625,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>4110-Licencias por Enfermedad (2023-10-10) al (2023-10-30)</t>
+          <t>4110-Licencias por Enfermedad</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -4610,6 +4663,7 @@
       <c r="R65" t="n">
         <v>20540000</v>
       </c>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4668,6 +4722,7 @@
       <c r="R66" t="n">
         <v>20540000</v>
       </c>
+      <c r="S66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4696,7 +4751,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-06) al (2023-10-12)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4734,6 +4789,7 @@
       <c r="R67" t="n">
         <v>44283850</v>
       </c>
+      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4762,7 +4818,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-02) al (2023-10-15)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4800,6 +4856,7 @@
       <c r="R68" t="n">
         <v>42677700</v>
       </c>
+      <c r="S68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4828,7 +4885,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>4111-Licencia por cumpleaños (2023-10-06) al (2023-10-06) - 3553-Vacaciones (2023-10-23) al (2023-10-29)</t>
+          <t>4111-Licencia por cumpleaños - 3553-Vacaciones</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4852,20 +4909,21 @@
         <v>18</v>
       </c>
       <c r="N69" t="n">
-        <v>16.74</v>
+        <v>18</v>
       </c>
       <c r="O69" t="n">
         <v>22945000</v>
       </c>
       <c r="P69" t="n">
-        <v>21338850</v>
+        <v>22945000</v>
       </c>
       <c r="Q69" t="n">
-        <v>34.74</v>
+        <v>36</v>
       </c>
       <c r="R69" t="n">
-        <v>44283850</v>
-      </c>
+        <v>45890000</v>
+      </c>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4894,7 +4952,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-10) al (2023-10-23)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4932,6 +4990,7 @@
       <c r="R70" t="n">
         <v>42677700</v>
       </c>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4956,7 +5015,7 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-23)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4994,6 +5053,7 @@
       <c r="R71" t="n">
         <v>0</v>
       </c>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5022,7 +5082,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-25) al (2023-10-31)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5060,6 +5120,7 @@
       <c r="R72" t="n">
         <v>19821100</v>
       </c>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5088,12 +5149,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-09-26) al (2023-10-09) - 18-Dia Promesa (2023-10-10) al (2023-10-10)</t>
+          <t>3553-Vacaciones - 18-Dia Promesa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>14 - 1</t>
+          <t>9 - 1</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -5126,6 +5187,7 @@
       <c r="R73" t="n">
         <v>63030000</v>
       </c>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5184,6 +5246,7 @@
       <c r="R74" t="n">
         <v>66000000</v>
       </c>
+      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5242,6 +5305,7 @@
       <c r="R75" t="n">
         <v>20540000</v>
       </c>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5266,7 +5330,7 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>3560-Beneficio Vacaciones Jefatura (2023-10-06) al (2023-10-12)</t>
+          <t>3560-Beneficio Vacaciones Jefatura</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -5304,6 +5368,7 @@
       <c r="R76" t="n">
         <v>0</v>
       </c>
+      <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5332,7 +5397,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>4106-Licencia por 1/2 trámite (2023-10-02) al (2023-10-02)</t>
+          <t>4106-Licencia por 1/2 trámite</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -5370,6 +5435,7 @@
       <c r="R77" t="n">
         <v>45890000</v>
       </c>
+      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5398,12 +5464,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>4111-Licencia por cumpleaños (2023-10-19) al (2023-10-19) - 3553-Vacaciones (2023-10-23) al (2023-11-05)</t>
+          <t>4111-Licencia por cumpleaños - 3553-Vacaciones</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1 - 14</t>
+          <t>1 - 9</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -5422,20 +5488,21 @@
         <v>18</v>
       </c>
       <c r="N78" t="n">
-        <v>16.38</v>
+        <v>18</v>
       </c>
       <c r="O78" t="n">
         <v>22945000</v>
       </c>
       <c r="P78" t="n">
-        <v>20879950</v>
+        <v>22945000</v>
       </c>
       <c r="Q78" t="n">
-        <v>34.38</v>
+        <v>36</v>
       </c>
       <c r="R78" t="n">
-        <v>43824950</v>
-      </c>
+        <v>45890000</v>
+      </c>
+      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5464,12 +5531,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-09-26) al (2023-10-02)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -5502,6 +5569,7 @@
       <c r="R79" t="n">
         <v>45890000</v>
       </c>
+      <c r="S79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5530,12 +5598,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-09-29) al (2023-10-12)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -5568,6 +5636,7 @@
       <c r="R80" t="n">
         <v>43136600</v>
       </c>
+      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5596,7 +5665,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-17) al (2023-10-17)</t>
+          <t>18-Dia Promesa</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -5634,6 +5703,7 @@
       <c r="R81" t="n">
         <v>66000000</v>
       </c>
+      <c r="S81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5662,12 +5732,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>4110-Licencias por Enfermedad (2023-09-28) al (2023-10-01) - 3553-Vacaciones (2023-10-23) al (2023-10-29)</t>
+          <t>4110-Licencias por Enfermedad - 3553-Vacaciones</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>4 - 7</t>
+          <t>1 - 7</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -5686,20 +5756,21 @@
         <v>12.5</v>
       </c>
       <c r="N82" t="n">
-        <v>11.625</v>
+        <v>12.5</v>
       </c>
       <c r="O82" t="n">
         <v>33000000</v>
       </c>
       <c r="P82" t="n">
-        <v>30690000</v>
+        <v>33000000</v>
       </c>
       <c r="Q82" t="n">
-        <v>24.12</v>
+        <v>25</v>
       </c>
       <c r="R82" t="n">
-        <v>63690000</v>
-      </c>
+        <v>66000000</v>
+      </c>
+      <c r="S82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5758,6 +5829,7 @@
       <c r="R83" t="n">
         <v>66000000</v>
       </c>
+      <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5786,7 +5858,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-02) al (2023-10-08)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5824,6 +5896,7 @@
       <c r="R84" t="n">
         <v>19821100</v>
       </c>
+      <c r="S84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5852,12 +5925,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-09-27) al (2023-10-03)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -5890,6 +5963,7 @@
       <c r="R85" t="n">
         <v>20540000</v>
       </c>
+      <c r="S85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5918,12 +5992,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-23) al (2023-10-29) - 3553-Vacaciones (2023-10-30) al (2023-11-12)</t>
+          <t>3553-Vacaciones - 3553-Vacaciones</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>7 - 14</t>
+          <t>7 - 2</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -5942,20 +6016,21 @@
         <v>12.5</v>
       </c>
       <c r="N86" t="n">
-        <v>10.25</v>
+        <v>11.375</v>
       </c>
       <c r="O86" t="n">
         <v>33000000</v>
       </c>
       <c r="P86" t="n">
-        <v>27060000</v>
+        <v>30030000</v>
       </c>
       <c r="Q86" t="n">
-        <v>22.75</v>
+        <v>23.88</v>
       </c>
       <c r="R86" t="n">
-        <v>60060000</v>
-      </c>
+        <v>63030000</v>
+      </c>
+      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -6014,6 +6089,7 @@
       <c r="R87" t="n">
         <v>66000000</v>
       </c>
+      <c r="S87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6042,7 +6118,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-09) al (2023-10-09)</t>
+          <t>18-Dia Promesa</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -6080,6 +6156,7 @@
       <c r="R88" t="n">
         <v>45890000</v>
       </c>
+      <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6108,12 +6185,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-30) al (2023-11-05)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -6146,6 +6223,7 @@
       <c r="R89" t="n">
         <v>45890000</v>
       </c>
+      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -6174,7 +6252,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-23) al (2023-10-29)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -6212,6 +6290,7 @@
       <c r="R90" t="n">
         <v>63690000</v>
       </c>
+      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -6270,6 +6349,7 @@
       <c r="R91" t="n">
         <v>20540000</v>
       </c>
+      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -6328,6 +6408,7 @@
       <c r="R92" t="n">
         <v>45890000</v>
       </c>
+      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6356,7 +6437,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-06) al (2023-10-06)</t>
+          <t>18-Dia Promesa</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -6394,6 +6475,7 @@
       <c r="R93" t="n">
         <v>45890000</v>
       </c>
+      <c r="S93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6422,7 +6504,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-23) al (2023-10-29)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -6460,6 +6542,7 @@
       <c r="R94" t="n">
         <v>63690000</v>
       </c>
+      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6488,12 +6571,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-09-18) al (2023-10-01)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -6526,6 +6609,7 @@
       <c r="R95" t="n">
         <v>61710000</v>
       </c>
+      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6554,7 +6638,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-06) al (2023-10-06)</t>
+          <t>18-Dia Promesa</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -6592,6 +6676,7 @@
       <c r="R96" t="n">
         <v>45890000</v>
       </c>
+      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6620,7 +6705,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>4100-Licencia por Examen Universitario (2023-10-03) al (2023-10-03) - 18-Dia Promesa (2023-10-12) al (2023-10-12)</t>
+          <t>4100-Licencia por Examen Universitario - 18-Dia Promesa</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -6658,6 +6743,7 @@
       <c r="R97" t="n">
         <v>66000000</v>
       </c>
+      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6716,6 +6802,7 @@
       <c r="R98" t="n">
         <v>45890000</v>
       </c>
+      <c r="S98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6744,12 +6831,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-09-29) al (2023-10-12)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -6782,6 +6869,7 @@
       <c r="R99" t="n">
         <v>19307600</v>
       </c>
+      <c r="S99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6840,6 +6928,7 @@
       <c r="R100" t="n">
         <v>66000000</v>
       </c>
+      <c r="S100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6898,6 +6987,7 @@
       <c r="R101" t="n">
         <v>45890000</v>
       </c>
+      <c r="S101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6956,6 +7046,7 @@
       <c r="R102" t="n">
         <v>45890000</v>
       </c>
+      <c r="S102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -7014,6 +7105,7 @@
       <c r="R103" t="n">
         <v>45890000</v>
       </c>
+      <c r="S103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -7042,7 +7134,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-23)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -7080,6 +7172,7 @@
       <c r="R104" t="n">
         <v>19821100</v>
       </c>
+      <c r="S104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -7108,7 +7201,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>4111-Licencia por cumpleaños (2023-10-02) al (2023-10-02)</t>
+          <t>4111-Licencia por cumpleaños</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -7146,6 +7239,7 @@
       <c r="R105" t="n">
         <v>45890000</v>
       </c>
+      <c r="S105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -7174,12 +7268,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-30) - 3553-Vacaciones (2023-10-31) al (2023-11-06)</t>
+          <t>3553-Vacaciones - 3553-Vacaciones</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>14 - 7</t>
+          <t>14 - 1</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -7198,20 +7292,21 @@
         <v>18</v>
       </c>
       <c r="N106" t="n">
-        <v>12.6</v>
+        <v>15.3</v>
       </c>
       <c r="O106" t="n">
         <v>22945000</v>
       </c>
       <c r="P106" t="n">
-        <v>16061500</v>
+        <v>19503250</v>
       </c>
       <c r="Q106" t="n">
-        <v>30.6</v>
+        <v>33.3</v>
       </c>
       <c r="R106" t="n">
-        <v>39006500</v>
-      </c>
+        <v>42448250</v>
+      </c>
+      <c r="S106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -7240,12 +7335,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-09-26) al (2023-10-16)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -7278,6 +7373,7 @@
       <c r="R107" t="n">
         <v>18896800</v>
       </c>
+      <c r="S107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -7336,6 +7432,7 @@
       <c r="R108" t="n">
         <v>66000000</v>
       </c>
+      <c r="S108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -7364,12 +7461,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>4132-Licencia por Maternidad (2023-08-18) al (2023-11-17)</t>
+          <t>4132-Licencia por Maternidad</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -7402,6 +7499,7 @@
       <c r="R109" t="n">
         <v>66000000</v>
       </c>
+      <c r="S109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -7430,7 +7528,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-09) al (2023-10-15)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -7468,6 +7566,7 @@
       <c r="R110" t="n">
         <v>19821100</v>
       </c>
+      <c r="S110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -7496,7 +7595,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-23)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -7534,6 +7633,7 @@
       <c r="R111" t="n">
         <v>19821100</v>
       </c>
+      <c r="S111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -7562,7 +7662,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-23)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -7600,6 +7700,7 @@
       <c r="R112" t="n">
         <v>44283850</v>
       </c>
+      <c r="S112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7628,7 +7729,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-04) al (2023-10-04)</t>
+          <t>18-Dia Promesa</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -7666,6 +7767,7 @@
       <c r="R113" t="n">
         <v>45890000</v>
       </c>
+      <c r="S113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7724,6 +7826,7 @@
       <c r="R114" t="n">
         <v>20540000</v>
       </c>
+      <c r="S114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7782,6 +7885,7 @@
       <c r="R115" t="n">
         <v>66000000</v>
       </c>
+      <c r="S115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7806,12 +7910,12 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>4070-Licencia por Matrimonio (2023-09-22) al (2023-10-03) - 3560-Beneficio Vacaciones Jefatura (2023-10-23) al (2023-10-29)</t>
+          <t>4070-Licencia por Matrimonio - 3560-Beneficio Vacaciones Jefatura</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>12 - 7</t>
+          <t>3 - 7</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -7844,6 +7948,7 @@
       <c r="R116" t="n">
         <v>0</v>
       </c>
+      <c r="S116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -7902,6 +8007,7 @@
       <c r="R117" t="n">
         <v>45890000</v>
       </c>
+      <c r="S117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7956,6 +8062,7 @@
       <c r="R118" t="n">
         <v>0</v>
       </c>
+      <c r="S118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -8014,6 +8121,7 @@
       <c r="R119" t="n">
         <v>20540000</v>
       </c>
+      <c r="S119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -8072,6 +8180,7 @@
       <c r="R120" t="n">
         <v>20540000</v>
       </c>
+      <c r="S120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -8130,6 +8239,7 @@
       <c r="R121" t="n">
         <v>45890000</v>
       </c>
+      <c r="S121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -8158,7 +8268,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-23)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -8196,6 +8306,7 @@
       <c r="R122" t="n">
         <v>19821100</v>
       </c>
+      <c r="S122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -8254,6 +8365,7 @@
       <c r="R123" t="n">
         <v>66000000</v>
       </c>
+      <c r="S123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -8312,6 +8424,7 @@
       <c r="R124" t="n">
         <v>66000000</v>
       </c>
+      <c r="S124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -8340,7 +8453,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-23)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -8378,6 +8491,7 @@
       <c r="R125" t="n">
         <v>19821100</v>
       </c>
+      <c r="S125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -8436,6 +8550,7 @@
       <c r="R126" t="n">
         <v>20540000</v>
       </c>
+      <c r="S126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -8464,7 +8579,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>4111-Licencia por cumpleaños (2023-10-03) al (2023-10-03)</t>
+          <t>4111-Licencia por cumpleaños</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -8502,6 +8617,7 @@
       <c r="R127" t="n">
         <v>20540000</v>
       </c>
+      <c r="S127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -8560,6 +8676,7 @@
       <c r="R128" t="n">
         <v>45890000</v>
       </c>
+      <c r="S128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -8588,12 +8705,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-23) al (2023-10-29) - 3553-Vacaciones (2023-10-30) al (2023-11-05)</t>
+          <t>3553-Vacaciones - 3553-Vacaciones</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>7 - 7</t>
+          <t>7 - 2</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -8612,20 +8729,21 @@
         <v>20</v>
       </c>
       <c r="N129" t="n">
-        <v>16.4</v>
+        <v>18.2</v>
       </c>
       <c r="O129" t="n">
         <v>10270000</v>
       </c>
       <c r="P129" t="n">
-        <v>8421400</v>
+        <v>9345700</v>
       </c>
       <c r="Q129" t="n">
-        <v>36.4</v>
+        <v>38.2</v>
       </c>
       <c r="R129" t="n">
-        <v>18691400</v>
-      </c>
+        <v>19615700</v>
+      </c>
+      <c r="S129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -8684,6 +8802,7 @@
       <c r="R130" t="n">
         <v>20540000</v>
       </c>
+      <c r="S130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -8712,7 +8831,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>4118-Enfermedad Fliar con goce de haber (2023-10-05) al (2023-10-06)</t>
+          <t>4118-Enfermedad Fliar con goce de haber</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -8750,6 +8869,7 @@
       <c r="R131" t="n">
         <v>20540000</v>
       </c>
+      <c r="S131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -8778,12 +8898,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-09-26) al (2023-10-02) - 3553-Vacaciones (2023-10-17) al (2023-10-23)</t>
+          <t>3553-Vacaciones - 3553-Vacaciones</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>7 - 7</t>
+          <t>2 - 7</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
@@ -8802,20 +8922,21 @@
         <v>18</v>
       </c>
       <c r="N132" t="n">
-        <v>14.76</v>
+        <v>16.38</v>
       </c>
       <c r="O132" t="n">
         <v>22945000</v>
       </c>
       <c r="P132" t="n">
-        <v>18814900</v>
+        <v>20879950</v>
       </c>
       <c r="Q132" t="n">
-        <v>32.76</v>
+        <v>34.38</v>
       </c>
       <c r="R132" t="n">
-        <v>41759900</v>
-      </c>
+        <v>43824950</v>
+      </c>
+      <c r="S132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -8844,7 +8965,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>4106-Licencia por 1/2 trámite (2023-10-16) al (2023-10-16)</t>
+          <t>4106-Licencia por 1/2 trámite</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -8882,6 +9003,7 @@
       <c r="R133" t="n">
         <v>45890000</v>
       </c>
+      <c r="S133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -8940,6 +9062,7 @@
       <c r="R134" t="n">
         <v>20540000</v>
       </c>
+      <c r="S134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8968,7 +9091,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-23) al (2023-10-29)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -9006,6 +9129,7 @@
       <c r="R135" t="n">
         <v>63690000</v>
       </c>
+      <c r="S135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -9034,7 +9158,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>4106-Licencia por 1/2 trámite (2023-10-03) al (2023-10-03) - 3553-Vacaciones (2023-10-18) al (2023-10-24)</t>
+          <t>4106-Licencia por 1/2 trámite - 3553-Vacaciones</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -9058,20 +9182,21 @@
         <v>20</v>
       </c>
       <c r="N136" t="n">
-        <v>18.6</v>
+        <v>20</v>
       </c>
       <c r="O136" t="n">
         <v>10270000</v>
       </c>
       <c r="P136" t="n">
-        <v>9551100</v>
+        <v>10270000</v>
       </c>
       <c r="Q136" t="n">
-        <v>38.6</v>
+        <v>40</v>
       </c>
       <c r="R136" t="n">
-        <v>19821100</v>
-      </c>
+        <v>20540000</v>
+      </c>
+      <c r="S136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -9096,12 +9221,12 @@
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-09-26) al (2023-10-02) - 3553-Vacaciones (2023-10-23) al (2023-10-29)</t>
+          <t>3553-Vacaciones - 3553-Vacaciones</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>7 - 7</t>
+          <t>2 - 7</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -9134,6 +9259,7 @@
       <c r="R137" t="n">
         <v>0</v>
       </c>
+      <c r="S137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -9162,7 +9288,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>4111-Licencia por cumpleaños (2023-10-03) al (2023-10-03) - 3553-Vacaciones (2023-10-04) al (2023-10-10)</t>
+          <t>4111-Licencia por cumpleaños - 3553-Vacaciones</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -9186,20 +9312,21 @@
         <v>18</v>
       </c>
       <c r="N138" t="n">
-        <v>16.74</v>
+        <v>18</v>
       </c>
       <c r="O138" t="n">
         <v>22945000</v>
       </c>
       <c r="P138" t="n">
-        <v>21338850</v>
+        <v>22945000</v>
       </c>
       <c r="Q138" t="n">
-        <v>34.74</v>
+        <v>36</v>
       </c>
       <c r="R138" t="n">
-        <v>44283850</v>
-      </c>
+        <v>45890000</v>
+      </c>
+      <c r="S138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -9258,6 +9385,7 @@
       <c r="R139" t="n">
         <v>20540000</v>
       </c>
+      <c r="S139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -9316,6 +9444,7 @@
       <c r="R140" t="n">
         <v>27635000</v>
       </c>
+      <c r="S140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -9374,6 +9503,7 @@
       <c r="R141" t="n">
         <v>20540000</v>
       </c>
+      <c r="S141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -9432,6 +9562,7 @@
       <c r="R142" t="n">
         <v>45890000</v>
       </c>
+      <c r="S142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -9460,7 +9591,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-23) al (2023-10-29)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -9498,6 +9629,7 @@
       <c r="R143" t="n">
         <v>19821100</v>
       </c>
+      <c r="S143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -9526,12 +9658,12 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-09-11) al (2023-10-01)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -9564,6 +9696,7 @@
       <c r="R144" t="n">
         <v>41301000</v>
       </c>
+      <c r="S144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -9592,12 +9725,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-09-26) al (2023-10-02)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
@@ -9630,6 +9763,7 @@
       <c r="R145" t="n">
         <v>66000000</v>
       </c>
+      <c r="S145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -9658,7 +9792,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-06) al (2023-10-12)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -9696,6 +9830,7 @@
       <c r="R146" t="n">
         <v>44283850</v>
       </c>
+      <c r="S146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -9724,7 +9859,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-17) al (2023-10-17)</t>
+          <t>18-Dia Promesa</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -9762,6 +9897,7 @@
       <c r="R147" t="n">
         <v>45890000</v>
       </c>
+      <c r="S147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -9790,7 +9926,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-06) al (2023-10-12) - 3553-Vacaciones (2023-09-15) al (2023-09-28)</t>
+          <t>3553-Vacaciones - 3553-Vacaciones</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -9811,28 +9947,24 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>14.4</v>
+        <v>17.2</v>
       </c>
       <c r="N148" t="n">
-        <v>17.2</v>
+        <v>18.6</v>
       </c>
       <c r="O148" t="n">
-        <v>7394400</v>
+        <v>8832200</v>
       </c>
       <c r="P148" t="n">
-        <v>8832200</v>
+        <v>9551100</v>
       </c>
       <c r="Q148" t="n">
-        <v>31.6</v>
+        <v>35.8</v>
       </c>
       <c r="R148" t="n">
-        <v>16226600</v>
-      </c>
-      <c r="S148" t="inlineStr">
-        <is>
-          <t>Prueba - tst</t>
-        </is>
-      </c>
+        <v>18383300</v>
+      </c>
+      <c r="S148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -9891,6 +10023,7 @@
       <c r="R149" t="n">
         <v>20540000</v>
       </c>
+      <c r="S149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -9949,6 +10082,7 @@
       <c r="R150" t="n">
         <v>45890000</v>
       </c>
+      <c r="S150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -9977,12 +10111,12 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>4133-Período de Excedencia (2023-09-16) al (2023-12-14)</t>
+          <t>4133-Período de Excedencia</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -10015,6 +10149,7 @@
       <c r="R151" t="n">
         <v>10270000</v>
       </c>
+      <c r="S151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -10073,6 +10208,7 @@
       <c r="R152" t="n">
         <v>66000000</v>
       </c>
+      <c r="S152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -10127,6 +10263,7 @@
       <c r="R153" t="n">
         <v>0</v>
       </c>
+      <c r="S153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -10185,6 +10322,7 @@
       <c r="R154" t="n">
         <v>45890000</v>
       </c>
+      <c r="S154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -10213,7 +10351,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-23) al (2023-10-29)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -10251,6 +10389,7 @@
       <c r="R155" t="n">
         <v>19821100</v>
       </c>
+      <c r="S155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -10279,7 +10418,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-23)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -10317,6 +10456,7 @@
       <c r="R156" t="n">
         <v>19821100</v>
       </c>
+      <c r="S156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -10375,6 +10515,7 @@
       <c r="R157" t="n">
         <v>45890000</v>
       </c>
+      <c r="S157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -10433,6 +10574,7 @@
       <c r="R158" t="n">
         <v>20540000</v>
       </c>
+      <c r="S158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -10491,6 +10633,7 @@
       <c r="R159" t="n">
         <v>20540000</v>
       </c>
+      <c r="S159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -10519,7 +10662,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-23)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -10557,6 +10700,7 @@
       <c r="R160" t="n">
         <v>19821100</v>
       </c>
+      <c r="S160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -10585,7 +10729,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>4111-Licencia por cumpleaños (2023-10-12) al (2023-10-12) - 18-Dia Promesa (2023-10-17) al (2023-10-17)</t>
+          <t>4111-Licencia por cumpleaños - 18-Dia Promesa</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -10623,6 +10767,7 @@
       <c r="R161" t="n">
         <v>45890000</v>
       </c>
+      <c r="S161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -10681,6 +10826,7 @@
       <c r="R162" t="n">
         <v>20540000</v>
       </c>
+      <c r="S162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -10709,12 +10855,12 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-09-18) al (2023-10-01)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I163" t="inlineStr"/>
@@ -10747,6 +10893,7 @@
       <c r="R163" t="n">
         <v>19204900</v>
       </c>
+      <c r="S163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -10805,6 +10952,7 @@
       <c r="R164" t="n">
         <v>45890000</v>
       </c>
+      <c r="S164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -10833,12 +10981,12 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>4132-Licencia por Maternidad (2023-07-03) al (2023-10-02) - 3553-Vacaciones (2023-10-03) al (2023-10-16)</t>
+          <t>4132-Licencia por Maternidad - 3553-Vacaciones</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>92 - 14</t>
+          <t>2 - 14</t>
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
@@ -10857,20 +11005,21 @@
         <v>18</v>
       </c>
       <c r="N165" t="n">
-        <v>15.48</v>
+        <v>18</v>
       </c>
       <c r="O165" t="n">
         <v>22945000</v>
       </c>
       <c r="P165" t="n">
-        <v>19732700</v>
+        <v>22945000</v>
       </c>
       <c r="Q165" t="n">
-        <v>33.48</v>
+        <v>36</v>
       </c>
       <c r="R165" t="n">
-        <v>42677700</v>
-      </c>
+        <v>45890000</v>
+      </c>
+      <c r="S165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -10929,6 +11078,7 @@
       <c r="R166" t="n">
         <v>20540000</v>
       </c>
+      <c r="S166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -10987,6 +11137,7 @@
       <c r="R167" t="n">
         <v>20540000</v>
       </c>
+      <c r="S167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -11015,7 +11166,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-30)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -11053,6 +11204,7 @@
       <c r="R168" t="n">
         <v>19102200</v>
       </c>
+      <c r="S168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -11107,6 +11259,7 @@
       <c r="R169" t="n">
         <v>0</v>
       </c>
+      <c r="S169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -11135,7 +11288,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-02) al (2023-10-02)</t>
+          <t>18-Dia Promesa</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -11173,6 +11326,7 @@
       <c r="R170" t="n">
         <v>66000000</v>
       </c>
+      <c r="S170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -11201,12 +11355,12 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>4110-Licencia por Enfermedad (2023-10-01) al (2023-12-06)</t>
+          <t>4110-Licencia por Enfermedad</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I171" t="inlineStr"/>
@@ -11239,6 +11393,7 @@
       <c r="R171" t="n">
         <v>10270000</v>
       </c>
+      <c r="S171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -11267,7 +11422,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-17) al (2023-10-17)</t>
+          <t>18-Dia Promesa</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -11305,6 +11460,7 @@
       <c r="R172" t="n">
         <v>45890000</v>
       </c>
+      <c r="S172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -11363,6 +11519,7 @@
       <c r="R173" t="n">
         <v>20540000</v>
       </c>
+      <c r="S173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -11421,6 +11578,7 @@
       <c r="R174" t="n">
         <v>45890000</v>
       </c>
+      <c r="S174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -11479,6 +11637,7 @@
       <c r="R175" t="n">
         <v>66000000</v>
       </c>
+      <c r="S175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -11537,6 +11696,7 @@
       <c r="R176" t="n">
         <v>66000000</v>
       </c>
+      <c r="S176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -11565,12 +11725,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-09-28) al (2023-10-11)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I177" t="inlineStr"/>
@@ -11603,6 +11763,7 @@
       <c r="R177" t="n">
         <v>19410300</v>
       </c>
+      <c r="S177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -11631,7 +11792,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-17) al (2023-10-17)</t>
+          <t>18-Dia Promesa</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -11669,6 +11830,7 @@
       <c r="R178" t="n">
         <v>66000000</v>
       </c>
+      <c r="S178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -11727,6 +11889,7 @@
       <c r="R179" t="n">
         <v>20540000</v>
       </c>
+      <c r="S179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -11785,6 +11948,7 @@
       <c r="R180" t="n">
         <v>20540000</v>
       </c>
+      <c r="S180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -11843,6 +12007,7 @@
       <c r="R181" t="n">
         <v>45890000</v>
       </c>
+      <c r="S181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -11901,6 +12066,7 @@
       <c r="R182" t="n">
         <v>66000000</v>
       </c>
+      <c r="S182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -11929,7 +12095,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-06) al (2023-10-12)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -11967,6 +12133,7 @@
       <c r="R183" t="n">
         <v>44283850</v>
       </c>
+      <c r="S183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -12025,6 +12192,7 @@
       <c r="R184" t="n">
         <v>20540000</v>
       </c>
+      <c r="S184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -12053,7 +12221,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-23) al (2023-10-29)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -12091,6 +12259,7 @@
       <c r="R185" t="n">
         <v>19821100</v>
       </c>
+      <c r="S185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -12149,6 +12318,7 @@
       <c r="R186" t="n">
         <v>20540000</v>
       </c>
+      <c r="S186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -12177,7 +12347,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-06) al (2023-10-12)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -12215,6 +12385,7 @@
       <c r="R187" t="n">
         <v>44283850</v>
       </c>
+      <c r="S187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -12243,7 +12414,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-06) al (2023-10-06)</t>
+          <t>18-Dia Promesa</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -12281,6 +12452,7 @@
       <c r="R188" t="n">
         <v>20540000</v>
       </c>
+      <c r="S188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -12339,6 +12511,7 @@
       <c r="R189" t="n">
         <v>20540000</v>
       </c>
+      <c r="S189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -12367,7 +12540,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>3553-Vacaciones (2023-10-17) al (2023-10-23)</t>
+          <t>3553-Vacaciones</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -12405,6 +12578,7 @@
       <c r="R190" t="n">
         <v>19821100</v>
       </c>
+      <c r="S190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -12433,7 +12607,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>4100-Licencia por Examen Universitario (2023-10-05) al (2023-10-06) - 4100-Licencia por Examen Universitario (2023-10-20) al (2023-10-20)</t>
+          <t>4100-Licencia por Examen Universitario - 4100-Licencia por Examen Universitario</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -12471,6 +12645,7 @@
       <c r="R191" t="n">
         <v>20540000</v>
       </c>
+      <c r="S191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -12499,7 +12674,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>4111-Licencia por cumpleaños (2023-10-02) al (2023-10-02)</t>
+          <t>4111-Licencia por cumpleaños</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -12537,6 +12712,7 @@
       <c r="R192" t="n">
         <v>20540000</v>
       </c>
+      <c r="S192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -12565,7 +12741,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>4110-Licencias por Enfermedad (2023-10-02) al (2023-10-02) - 4110-Licencias por Enfermedad (2023-10-05) al (2023-10-06)</t>
+          <t>4110-Licencias por Enfermedad - 4110-Licencias por Enfermedad</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -12603,6 +12779,7 @@
       <c r="R193" t="n">
         <v>20540000</v>
       </c>
+      <c r="S193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -12661,6 +12838,7 @@
       <c r="R194" t="n">
         <v>20540000</v>
       </c>
+      <c r="S194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -12719,6 +12897,7 @@
       <c r="R195" t="n">
         <v>20540000</v>
       </c>
+      <c r="S195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -12777,6 +12956,7 @@
       <c r="R196" t="n">
         <v>20540000</v>
       </c>
+      <c r="S196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -12835,6 +13015,7 @@
       <c r="R197" t="n">
         <v>20540000</v>
       </c>
+      <c r="S197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -12893,6 +13074,7 @@
       <c r="R198" t="n">
         <v>20540000</v>
       </c>
+      <c r="S198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -12951,6 +13133,7 @@
       <c r="R199" t="n">
         <v>20540000</v>
       </c>
+      <c r="S199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -12979,7 +13162,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>18-Dia Promesa (2023-10-17) al (2023-10-17)</t>
+          <t>18-Dia Promesa</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -13017,6 +13200,7 @@
       <c r="R200" t="n">
         <v>20540000</v>
       </c>
+      <c r="S200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -13075,6 +13259,7 @@
       <c r="R201" t="n">
         <v>20540000</v>
       </c>
+      <c r="S201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -13133,6 +13318,7 @@
       <c r="R202" t="n">
         <v>20540000</v>
       </c>
+      <c r="S202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -13191,6 +13377,7 @@
       <c r="R203" t="n">
         <v>20540000</v>
       </c>
+      <c r="S203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -13249,6 +13436,7 @@
       <c r="R204" t="n">
         <v>20540000</v>
       </c>
+      <c r="S204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -13277,7 +13465,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>4106-Licencia por 1/2 trámite (2023-10-23) al (2023-10-23)</t>
+          <t>4106-Licencia por 1/2 trámite</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -13315,6 +13503,7 @@
       <c r="R205" t="n">
         <v>20540000</v>
       </c>
+      <c r="S205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -13373,6 +13562,7 @@
       <c r="R206" t="n">
         <v>20540000</v>
       </c>
+      <c r="S206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -13431,6 +13621,7 @@
       <c r="R207" t="n">
         <v>20540000</v>
       </c>
+      <c r="S207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -13489,6 +13680,7 @@
       <c r="R208" t="n">
         <v>20540000</v>
       </c>
+      <c r="S208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -13517,7 +13709,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>4106-Licencia por 1/2 trámite (2023-10-05) al (2023-10-05) - 4110-Licencias por Enfermedad (2023-10-09) al (2023-10-09)</t>
+          <t>4106-Licencia por 1/2 trámite - 4110-Licencias por Enfermedad</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -13555,6 +13747,7 @@
       <c r="R209" t="n">
         <v>20540000</v>
       </c>
+      <c r="S209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -13613,6 +13806,7 @@
       <c r="R210" t="n">
         <v>27635000</v>
       </c>
+      <c r="S210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -13671,6 +13865,7 @@
       <c r="R211" t="n">
         <v>27635000</v>
       </c>
+      <c r="S211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -13729,6 +13924,7 @@
       <c r="R212" t="n">
         <v>27635000</v>
       </c>
+      <c r="S212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -13787,6 +13983,7 @@
       <c r="R213" t="n">
         <v>27635000</v>
       </c>
+      <c r="S213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -13845,6 +14042,7 @@
       <c r="R214" t="n">
         <v>27635000</v>
       </c>
+      <c r="S214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -13903,6 +14101,7 @@
       <c r="R215" t="n">
         <v>27635000</v>
       </c>
+      <c r="S215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -13961,6 +14160,7 @@
       <c r="R216" t="n">
         <v>27635000</v>
       </c>
+      <c r="S216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -14019,6 +14219,7 @@
       <c r="R217" t="n">
         <v>27635000</v>
       </c>
+      <c r="S217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -14077,6 +14278,7 @@
       <c r="R218" t="n">
         <v>27635000</v>
       </c>
+      <c r="S218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -14135,6 +14337,7 @@
       <c r="R219" t="n">
         <v>27635000</v>
       </c>
+      <c r="S219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -14193,6 +14396,7 @@
       <c r="R220" t="n">
         <v>27635000</v>
       </c>
+      <c r="S220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -14221,7 +14425,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>4100-Licencia por Examen Universitario (2023-10-06) al (2023-10-06)</t>
+          <t>4100-Licencia por Examen Universitario</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -14259,6 +14463,7 @@
       <c r="R221" t="n">
         <v>27635000</v>
       </c>
+      <c r="S221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -14317,6 +14522,7 @@
       <c r="R222" t="n">
         <v>27635000</v>
       </c>
+      <c r="S222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -14375,6 +14581,7 @@
       <c r="R223" t="n">
         <v>27635000</v>
       </c>
+      <c r="S223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -14433,6 +14640,7 @@
       <c r="R224" t="n">
         <v>27635000</v>
       </c>
+      <c r="S224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -14491,6 +14699,7 @@
       <c r="R225" t="n">
         <v>27635000</v>
       </c>
+      <c r="S225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -14549,6 +14758,7 @@
       <c r="R226" t="n">
         <v>27635000</v>
       </c>
+      <c r="S226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -14607,6 +14817,7 @@
       <c r="R227" t="n">
         <v>27635000</v>
       </c>
+      <c r="S227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -14665,6 +14876,7 @@
       <c r="R228" t="n">
         <v>27635000</v>
       </c>
+      <c r="S228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -14723,6 +14935,7 @@
       <c r="R229" t="n">
         <v>27635000</v>
       </c>
+      <c r="S229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -14781,6 +14994,7 @@
       <c r="R230" t="n">
         <v>27635000</v>
       </c>
+      <c r="S230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -14839,6 +15053,7 @@
       <c r="R231" t="n">
         <v>27635000</v>
       </c>
+      <c r="S231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -14897,6 +15112,7 @@
       <c r="R232" t="n">
         <v>27635000</v>
       </c>
+      <c r="S232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -14955,6 +15171,7 @@
       <c r="R233" t="n">
         <v>27635000</v>
       </c>
+      <c r="S233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -15013,6 +15230,7 @@
       <c r="R234" t="n">
         <v>27635000</v>
       </c>
+      <c r="S234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -15071,6 +15289,7 @@
       <c r="R235" t="n">
         <v>27635000</v>
       </c>
+      <c r="S235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -15129,6 +15348,7 @@
       <c r="R236" t="n">
         <v>27635000</v>
       </c>
+      <c r="S236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -15187,6 +15407,7 @@
       <c r="R237" t="n">
         <v>27635000</v>
       </c>
+      <c r="S237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -15245,6 +15466,7 @@
       <c r="R238" t="n">
         <v>27635000</v>
       </c>
+      <c r="S238" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
